--- a/analysis/figures/correlation-matrix_femXcomplexity.xlsx
+++ b/analysis/figures/correlation-matrix_femXcomplexity.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McBride Work\Documents\GradSchool\Projects\PSRC\PSRC.analysis\analysis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BB6B69-DD6A-4937-B0A4-A06AA65A03B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4EB70-8117-4256-8B4D-09F264A9F7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="315" windowWidth="15390" windowHeight="14985" xr2:uid="{69E6A1C8-13DC-4BBA-8D90-D72FEC8ECC1F}"/>
+    <workbookView xWindow="33840" yWindow="1005" windowWidth="15390" windowHeight="14985" firstSheet="2" activeTab="2" xr2:uid="{69E6A1C8-13DC-4BBA-8D90-D72FEC8ECC1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Correlation Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation Matrix above .09" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="42">
   <si>
     <t>RESWAL</t>
   </si>
@@ -152,6 +154,15 @@
   <si>
     <t>RACWHT</t>
   </si>
+  <si>
+    <t>SEQ_6</t>
+  </si>
+  <si>
+    <t>RACOTH</t>
+  </si>
+  <si>
+    <t>AGEGRP_3</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +185,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,22 +235,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFEFB"/>
+      <color rgb="FFB94ED6"/>
+      <color rgb="FFFFFBEF"/>
+      <color rgb="FFD80A0F"/>
+      <color rgb="FF419D59"/>
+      <color rgb="FFF40C12"/>
+      <color rgb="FFF52B30"/>
+      <color rgb="FFFFFBE7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -526,9 +611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAE7F0-AE4A-4146-83B9-7BBB89635CB1}">
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I24" sqref="I24"/>
+      <selection pane="topRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5188,4 +5273,6198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF308557-1C3D-459B-99DD-CD3526C44DBA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-0.67600000000000005</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-0.127</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-0.125</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-0.17</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-0.64</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="J11" s="8">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="J12" s="8">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-0.224</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>-0.73</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-0.222</v>
+      </c>
+      <c r="I15" s="8">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="M15" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="O16" s="8">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="H17" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O17" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="P17" s="8">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="H18" s="8">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="L18" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="P18" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.123</v>
+      </c>
+      <c r="P19" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R19" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I20" s="8">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R20" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J21" s="8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.128</v>
+      </c>
+      <c r="O21" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+    </row>
+    <row r="22" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>-0.34699999999999998</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.104</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M22" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.219</v>
+      </c>
+      <c r="R22" s="9">
+        <v>-0.09</v>
+      </c>
+      <c r="S22" s="9">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="T22" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="U22" s="9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="I23" s="8">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M23" s="8">
+        <v>-0.192</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O23" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>-0.112</v>
+      </c>
+      <c r="R23" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="U23" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="V23" s="8">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>-0.115</v>
+      </c>
+      <c r="H24" s="8">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="I24" s="8">
+        <v>-0.105</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="N24" s="8">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="P24" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="R24" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S24" s="8">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="T24" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="U24" s="8">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="V24" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W24" s="8">
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8">
+        <v>-0.107</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="I25" s="8">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="N25" s="8">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="O25" s="8">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.126</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S25" s="8">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="U25" s="8">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="V25" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="W25" s="8">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="8">
+        <v>-0.11</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="I26" s="8">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.183</v>
+      </c>
+      <c r="N26" s="8">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R26" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S26" s="8">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="T26" s="8">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="U26" s="8">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="V26" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W26" s="8">
+        <v>-0.39</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H27" s="8">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N27" s="8">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="P27" s="8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="R27" s="8">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="S27" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T27" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U27" s="8">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="V27" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W27" s="8">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="8">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N28" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="O28" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="P28" s="8">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.123</v>
+      </c>
+      <c r="R28" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="S28" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T28" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U28" s="8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="V28" s="8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="W28" s="8">
+        <v>-0.215</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0.255</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N29" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="O29" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="P29" s="8">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R29" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="S29" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T29" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="U29" s="8">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="V29" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="W29" s="8">
+        <v>-0.22</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E30" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="H30" s="8">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.128</v>
+      </c>
+      <c r="N30" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="O30" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P30" s="8">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="R30" s="8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="S30" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="T30" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="U30" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="V30" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="W30" s="8">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="C31" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F31" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="I31" s="8">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="J31" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L31" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N31" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="O31" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="P31" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="R31" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="U31" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="V31" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="W31" s="8">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0.748</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G32" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="I32" s="8">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="P32" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R32" s="8">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="U32" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V32" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="W32" s="8">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="X32" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M33" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N33" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="O33" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="P33" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S33" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="T33" s="8">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="U33" s="8">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="V33" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="W33" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="X33" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M34" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="N34" s="8">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="O34" s="8">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="P34" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="U34" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="V34" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="X34" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.161</v>
+      </c>
+      <c r="I35" s="8">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="J35" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M35" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="N35" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O35" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P35" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R35" s="8">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="S35" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="T35" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="X35" s="8">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G36" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="I36" s="8">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M36" s="8">
+        <v>-0.124</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="R36" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0.161</v>
+      </c>
+      <c r="X36" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>-0.104</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AI36" s="8">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H37" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I37" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="J37" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K37" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N37" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O37" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P37" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="R37" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S37" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T37" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U37" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V37" s="8">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="X37" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AI37" s="8">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AJ37" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G38" s="8">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="I38" s="8">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.159</v>
+      </c>
+      <c r="N38" s="8">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="P38" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R38" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S38" s="8">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="T38" s="8">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="U38" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="W38" s="8">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>0.127</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>0.223</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>-0.09</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="8">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F39" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M39" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N39" s="8">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="O39" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="R39" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="S39" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="T39" s="8">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="U39" s="8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="V39" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="W39" s="8">
+        <v>-0.193</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Z39" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AB39" s="8">
+        <v>0.111</v>
+      </c>
+      <c r="AC39" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="AD39" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AF39" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="AG39" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AH39" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AJ39" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK39" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>0.435</v>
+      </c>
+      <c r="AM39" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AL39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFB94ED6"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFB94ED6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2485B7B-6772-4504-8AC0-9F09434F2864}">
+  <dimension ref="A1:AP42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE55" sqref="AE55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="5.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="11" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-0.67600000000000005</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-0.127</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="D5" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12">
+        <v>-0.125</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-0.17</v>
+      </c>
+      <c r="D6" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-0.19700000000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="C9" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-0.64</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="I10" s="12">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-1E-3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="I12" s="12">
+        <v>-0.125</v>
+      </c>
+      <c r="J12" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="K12" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L13" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="12">
+        <v>-0.73</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="I15" s="12">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="J15" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="M15" s="12">
+        <v>-0.317</v>
+      </c>
+      <c r="N15" s="12">
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M16" s="12">
+        <v>-0.224</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O16" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="L17" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="P17" s="12">
+        <v>-0.222</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J18" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="12">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="O18" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12">
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="12">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K19" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O19" s="12">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="P19" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="R19" s="12">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="S19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H20" s="12">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="K20" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L20" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N20" s="12">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="P20" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="R20" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S20" s="12">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="T20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G21" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="I21" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>-1E-3</v>
+      </c>
+      <c r="L21" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N21" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O21" s="12">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="P21" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="R21" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S21" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T21" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="H22" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L22" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="O22" s="12">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0.124</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="S22" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T22" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0.218</v>
+      </c>
+      <c r="V22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-1E-3</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="H23" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I23" s="12">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L23" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="M23" s="12">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.128</v>
+      </c>
+      <c r="O23" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="P23" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R23" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S23" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T23" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U23" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M24" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="N24" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O24" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="P24" s="12">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R24" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0.107</v>
+      </c>
+      <c r="T24" s="12">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="U24" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V24" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W24" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12">
+        <v>-0.34699999999999998</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F25" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="L25" s="12">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N25" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O25" s="12">
+        <v>-0.121</v>
+      </c>
+      <c r="P25" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="R25" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0.219</v>
+      </c>
+      <c r="T25" s="12">
+        <v>-0.09</v>
+      </c>
+      <c r="U25" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="V25" s="12">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="W25" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D26" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L26" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M26" s="12">
+        <v>-0.192</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0.114</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S26" s="12">
+        <v>-0.112</v>
+      </c>
+      <c r="T26" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0.114</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0.112</v>
+      </c>
+      <c r="W26" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="C27" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D27" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>-0.105</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="N27" s="12">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="O27" s="12">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="P27" s="12">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="R27" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S27" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="T27" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U27" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="V27" s="12">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="W27" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="X27" s="12">
+        <v>-0.115</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12">
+        <v>-0.107</v>
+      </c>
+      <c r="C28" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D28" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H28" s="12">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="I28" s="12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J28" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L28" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="N28" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="O28" s="12">
+        <v>-0.158</v>
+      </c>
+      <c r="P28" s="12">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S28" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="T28" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U28" s="12">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="V28" s="12">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="W28" s="12">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="X28" s="12">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="12">
+        <v>-0.11</v>
+      </c>
+      <c r="C29" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G29" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L29" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0.183</v>
+      </c>
+      <c r="N29" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="O29" s="12">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="P29" s="12">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="R29" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="T29" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U29" s="12">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="V29" s="12">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="W29" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="X29" s="12">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>-0.39</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AB29" s="12">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="12">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K30" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="L30" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N30" s="12">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="O30" s="12">
+        <v>-0.17</v>
+      </c>
+      <c r="P30" s="12">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="R30" s="12">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0.121</v>
+      </c>
+      <c r="T30" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="U30" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V30" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W30" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="X30" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>0.251</v>
+      </c>
+      <c r="AB30" s="12">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N31" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="O31" s="12">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="P31" s="12">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="R31" s="12">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="T31" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="U31" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V31" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W31" s="12">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="X31" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>-0.215</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>0.255</v>
+      </c>
+      <c r="AB31" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="12">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E32" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="I32" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="L32" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N32" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="O32" s="12">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="P32" s="12">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="R32" s="12">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="T32" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="U32" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V32" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W32" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="X32" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>-0.22</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AB32" s="12">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="12">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="C33" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E33" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="H33" s="12">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="I33" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="L33" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0.128</v>
+      </c>
+      <c r="N33" s="12">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="O33" s="12">
+        <v>-0.152</v>
+      </c>
+      <c r="P33" s="12">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R33" s="12">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="S33" s="12">
+        <v>0.107</v>
+      </c>
+      <c r="T33" s="12">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="U33" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="V33" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W33" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="X33" s="12">
+        <v>-1E-3</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>0.753</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AG33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="C34" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F34" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H34" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="I34" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K34" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="L34" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N34" s="12">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="O34" s="12">
+        <v>-0.193</v>
+      </c>
+      <c r="P34" s="12">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="R34" s="12">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="S34" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="T34" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="U34" s="12">
+        <v>0</v>
+      </c>
+      <c r="V34" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W34" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="X34" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AB34" s="12">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="AF34" s="12">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="12">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E35" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K35" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="L35" s="12">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="O35" s="12">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="P35" s="12">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="R35" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T35" s="12">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="U35" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V35" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W35" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X35" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AB35" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>0.107</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J36" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L36" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="M36" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N36" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="O36" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="P36" s="12">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="R36" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S36" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T36" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="U36" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="V36" s="12">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="W36" s="12">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="X36" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AB36" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AI36" s="12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AJ36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C37" s="12">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D37" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E37" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F37" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="H37" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="I37" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J37" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="K37" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L37" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="M37" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="N37" s="12">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="O37" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P37" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="R37" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S37" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="T37" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="W37" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="X37" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AE37" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AF37" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AI37" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AJ37" s="12">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AK37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C38" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D38" s="12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F38" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="H38" s="12">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="I38" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J38" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K38" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L38" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M38" s="12">
+        <v>-1E-3</v>
+      </c>
+      <c r="N38" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O38" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0.161</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R38" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S38" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T38" s="12">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="U38" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V38" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0</v>
+      </c>
+      <c r="X38" s="12">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="AB38" s="12">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="AE38" s="12">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="AF38" s="12">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="AG38" s="12">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="AH38" s="12">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AL38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F39" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G39" s="12">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="H39" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="I39" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J39" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="K39" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L39" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M39" s="12">
+        <v>-0.124</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O39" s="12">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="S39" s="12">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="T39" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="U39" s="12">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="V39" s="12">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="X39" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>0.161</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="AB39" s="12">
+        <v>-0.104</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE39" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AG39" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="AI39" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AJ39" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK39" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AM39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="D40" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E40" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="I40" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J40" s="12">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="K40" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L40" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M40" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N40" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O40" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P40" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R40" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="S40" s="12">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="T40" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U40" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V40" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W40" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X40" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="AE40" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AG40" s="12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="AH40" s="12">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="AI40" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AJ40" s="12">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AK40" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="AL40" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AM40" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="AN40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="C41" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F41" s="12">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="I41" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J41" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K41" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L41" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0.159</v>
+      </c>
+      <c r="N41" s="12">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="O41" s="12">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="P41" s="12">
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="R41" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S41" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="T41" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U41" s="12">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="V41" s="12">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="W41" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="X41" s="12">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>0.374</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>0.127</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>0.223</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>0.189</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AL41" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AM41" s="12">
+        <v>-0.09</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="AO41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F42" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H42" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I42" s="12">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="J42" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K42" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="L42" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N42" s="12">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="O42" s="12">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="P42" s="12">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="R42" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="S42" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="T42" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="U42" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="V42" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="W42" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="X42" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>-0.193</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AH42" s="12">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AI42" s="12">
+        <v>0.251</v>
+      </c>
+      <c r="AJ42" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="AK42" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AL42" s="12">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AM42" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AO42" s="12">
+        <v>0.435</v>
+      </c>
+      <c r="AP42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFB94ED6"/>
+        <color rgb="FFFFFEFB"/>
+        <color rgb="FFB94ED6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>